--- a/LEM_Template.xlsx
+++ b/LEM_Template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Chemical</t>
   </si>
@@ -66,19 +66,19 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">enter string here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter numeric here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string here must be detected in Factors sheet. Examples Below.</t>
+    <t xml:space="preserve">A string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A numeric.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String here must be detected in Factors sheet. Examples Below.</t>
   </si>
   <si>
     <t xml:space="preserve">Add any number of identifying columns. (citation, location, etc.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Indoor Air</t>
+    <t xml:space="preserve">Dust</t>
   </si>
   <si>
     <t xml:space="preserve">Water</t>
@@ -87,31 +87,25 @@
     <t xml:space="preserve">Individual</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indoor Air: Inhalation Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indoor Air: Time spent indoors (h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indoor Air: Absorption Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water: Intake per day (L/day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water AF</t>
+    <t xml:space="preserve">Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
   </si>
   <si>
     <t xml:space="preserve">Name of group (adults, women, children, etc.)</t>
   </si>
   <si>
-    <t xml:space="preserve">number of exposures generated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create any number of exposure factor columns. column name must be detected in Media column in data sheet.</t>
+    <t xml:space="preserve">Media column to match data input sheet (e.g. Dust)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grouping of factors (e.g. Ingestion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of one of many variables used to transform concentration to a result. (e.g. Inhalation Rate)</t>
   </si>
 </sst>
 </file>
@@ -674,45 +668,33 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
